--- a/products.xlsx
+++ b/products.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\001_Programowanie\014_VW_LCV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3529515C-F97F-4D14-B7B0-A72949665E24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6151F709-F5EE-40C6-940C-FE967C936CD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9915" yWindow="3540" windowWidth="19305" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="36">
   <si>
     <t>Pojazdy i części</t>
   </si>
@@ -33,31 +33,106 @@
     <t>Akcesoria i części do pojazdów</t>
   </si>
   <si>
-    <t>Części i akcesoria do jednostek pływających</t>
-  </si>
-  <si>
-    <t>Dokowanie i kotwiczenie</t>
-  </si>
-  <si>
-    <t>Haki do łodzi</t>
-  </si>
-  <si>
-    <t>Kabestany</t>
-  </si>
-  <si>
-    <t>Knagi</t>
-  </si>
-  <si>
-    <t>Kotwice</t>
-  </si>
-  <si>
-    <t>Liny do kotwic</t>
-  </si>
-  <si>
-    <t>Trapy</t>
-  </si>
-  <si>
-    <t>Łańcuchy do kotwic</t>
+    <t>Koła i felgi</t>
+  </si>
+  <si>
+    <t>Koła i felgi samochodowe</t>
+  </si>
+  <si>
+    <t>Przewóz i przechowywanie bagażu</t>
+  </si>
+  <si>
+    <t>Bagażniki samochodowe</t>
+  </si>
+  <si>
+    <t>BAGAŻNIKI DACHOWE</t>
+  </si>
+  <si>
+    <t>Bagażniki do przewozu rowerów</t>
+  </si>
+  <si>
+    <t>Części do pojazdów silnikowych</t>
+  </si>
+  <si>
+    <t>Wykładziny i tapicerka</t>
+  </si>
+  <si>
+    <t>Belki bagażnika</t>
+  </si>
+  <si>
+    <t>bagażnika dachowego</t>
+  </si>
+  <si>
+    <t>Uchwyt na kajak</t>
+  </si>
+  <si>
+    <t>Bagażnik dachowy </t>
+  </si>
+  <si>
+    <t>Mocowanie nart/desek</t>
+  </si>
+  <si>
+    <t>Bagażnik rowerowy</t>
+  </si>
+  <si>
+    <t>bagażnika rowerowego</t>
+  </si>
+  <si>
+    <t>Uchwyt rowerowy</t>
+  </si>
+  <si>
+    <t>Akcesoria do bagażników bazowych</t>
+  </si>
+  <si>
+    <t>Akcesoria do bagażników do przewozu rowerów</t>
+  </si>
+  <si>
+    <t>Dywaniki</t>
+  </si>
+  <si>
+    <t>Mata bagażnika</t>
+  </si>
+  <si>
+    <t>Wykładzina bagażnika</t>
+  </si>
+  <si>
+    <t>Wanna bagażnika</t>
+  </si>
+  <si>
+    <t>Koła do pojazdów silnikowych</t>
+  </si>
+  <si>
+    <t>Części do kół</t>
+  </si>
+  <si>
+    <t>Zestaw śrub zabezpieczających</t>
+  </si>
+  <si>
+    <t>Felga aluminiowa</t>
+  </si>
+  <si>
+    <t>Pokrowce na koła</t>
+  </si>
+  <si>
+    <t>Akcesoria do opon</t>
+  </si>
+  <si>
+    <t>Koło zimowe</t>
+  </si>
+  <si>
+    <t>Nakrętki na wentyle</t>
+  </si>
+  <si>
+    <t>Opony</t>
+  </si>
+  <si>
+    <t>Opony samochodowe</t>
+  </si>
+  <si>
+    <t>Hak </t>
+  </si>
+  <si>
+    <t>Sprzęt holowniczy</t>
   </si>
 </sst>
 </file>
@@ -375,176 +450,437 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1">
+        <v>3472</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="B1">
-        <v>3655</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>3472</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>3472</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>3472</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>3472</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>3472</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>2836</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>7122</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>7122</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>8232</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>8232</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>8232</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>8232</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>2556</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15">
+        <v>2556</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>6090</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H16" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>3480</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>3572</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>3189</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>3362</v>
-      </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>3899</v>
-      </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>3452</v>
-      </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>2989</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>6093</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>8228</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="https://vwdostawcze-sklep.pl/katalog/686,1,baga%C5%BBniki-dachowe" xr:uid="{80E76482-F032-47C6-B059-318D0DA8E53E}"/>
+    <hyperlink ref="A9" r:id="rId2" display="https://vwdostawcze-sklep.pl/katalog/1/uchwyt-na-rower-vw,208286.html" xr:uid="{A0C98C04-3D52-4C13-93E4-1DC5FA62AC0F}"/>
+    <hyperlink ref="A15" r:id="rId3" display="https://vwdostawcze-sklep.pl/katalog/1/nakretki-na-wentyle-do-wentyli-aluminiowych,206262.html" xr:uid="{E20D7DE7-A072-4AB9-A6C0-2360D6CCF02E}"/>
+    <hyperlink ref="A16" r:id="rId4" display="https://vwdostawcze-sklep.pl/katalog/1/felga-aluminiowa-vw-caddy-544-merano-6465j-x-16-et48,208432.html" xr:uid="{23B18ECD-6AE1-459F-A149-09DC38F1B6A0}"/>
+    <hyperlink ref="A17" r:id="rId5" display="https://vwdostawcze-sklep.pl/katalog/1/pokrowce-na-kola,206744.html" xr:uid="{49F31D7E-B6DD-4168-ABE3-7FFA09563F8D}"/>
+    <hyperlink ref="A18" r:id="rId6" display="https://vwdostawcze-sklep.pl/katalog/1/kolo-zimowe-vw-caddy-544-opona-bridgestone44-r1644-lewe,208407.html" xr:uid="{A86D8EBE-F9D8-4D9D-B916-353E745B3093}"/>
+    <hyperlink ref="A19" r:id="rId7" display="https://vwdostawcze-sklep.pl/katalog/1/hak-holowniczy-odejmowany-vw-caddy-5-kula-wysoka,208431.html" xr:uid="{7B0C7410-3CC8-4093-B1F8-62642679B1B3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>